--- a/ezclimate/RBF_QN/time_rbf_qn.xlsx
+++ b/ezclimate/RBF_QN/time_rbf_qn.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11600" yWindow="5940" windowWidth="14000" windowHeight="8240" tabRatio="500"/>
+    <workbookView xWindow="200" yWindow="460" windowWidth="14080" windowHeight="9180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:I8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -586,30 +586,6 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>8388.4179999999997</v>
-      </c>
-      <c r="C8">
-        <v>23.532</v>
-      </c>
-      <c r="D8">
-        <v>8358.2759999999998</v>
-      </c>
-      <c r="E8">
-        <v>8358.2759999999998</v>
-      </c>
-      <c r="F8">
-        <v>8331.8780000000006</v>
-      </c>
-      <c r="G8">
-        <v>0.13</v>
-      </c>
-      <c r="H8">
-        <v>5221.9930000000004</v>
-      </c>
-      <c r="I8">
-        <v>3.5999999999999997E-2</v>
-      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -624,6 +600,40 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <f>AVERAGE(B2:B7)</f>
+        <v>7474.1443333333336</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:I12" si="0">AVERAGE(C2:C7)</f>
+        <v>20.754999999999999</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>7447.0114999999996</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>7446.9594999999999</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>7421.8634999999995</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0.122</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>4581.0846666666666</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>3.9333333333333338E-2</v>
       </c>
     </row>
   </sheetData>
